--- a/Inherit/Assets/Personas.xlsx
+++ b/Inherit/Assets/Personas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F661172F-6334-4382-82E3-198BBE4AFDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98F551-7BDC-4A39-91A7-E94495F68ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,43 +39,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Adjetivos</t>
-  </si>
-  <si>
-    <t>Verbos</t>
-  </si>
-  <si>
-    <t>Adverbios</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Pronombres</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>NombreCompleto</t>
   </si>
   <si>
     <t>Fallecido</t>
   </si>
   <si>
+    <t>Armando Real</t>
+  </si>
+  <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Mari carmen parrón</t>
+  </si>
+  <si>
+    <t>Francisco 2 (Hijo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C3:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,85 +423,53 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4">
+      <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Inherit/Assets/Personas.xlsx
+++ b/Inherit/Assets/Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98F551-7BDC-4A39-91A7-E94495F68ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D293B55C-ABDF-4314-A987-BCC09F55E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -50,16 +50,22 @@
     <t>Fallecido</t>
   </si>
   <si>
-    <t>Armando Real</t>
+    <t>Armando (Hijo)</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Mari carmen parrón</t>
-  </si>
-  <si>
-    <t>Francisco 2 (Hijo)</t>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -447,7 +453,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -458,12 +464,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
     </row>
